--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1421.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1421.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.676362213738489</v>
+        <v>1.035664916038513</v>
       </c>
       <c r="B1">
-        <v>2.04930885432465</v>
+        <v>0.9053687453269958</v>
       </c>
       <c r="C1">
-        <v>2.189175192733117</v>
+        <v>6.534774780273438</v>
       </c>
       <c r="D1">
-        <v>2.595299032545577</v>
+        <v>2.014665603637695</v>
       </c>
       <c r="E1">
-        <v>3.195088004210966</v>
+        <v>1.119258522987366</v>
       </c>
     </row>
   </sheetData>
